--- a/01 计划阶段/05 项目实施进度简表/项目实施进度简表 - 示例.xlsx
+++ b/01 计划阶段/05 项目实施进度简表/项目实施进度简表 - 示例.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB2B574-60D5-D441-BC21-4F9F4068E53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1C207B-24AB-E844-A9A7-5C5740E7A206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="22060" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -672,7 +672,7 @@
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24">
+    <row r="1" spans="1:8" ht="33" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="33" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="33" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -720,7 +720,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="33" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
